--- a/framework-web/docs/framework_table_dd.xlsx
+++ b/framework-web/docs/framework_table_dd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>TABLE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>PK Y/N</t>
+  </si>
+  <si>
+    <t>PART Y/N</t>
   </si>
 </sst>
 </file>
@@ -98,18 +101,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -119,14 +116,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,34 +154,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,104 +548,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/framework-web/docs/framework_table_dd.xlsx
+++ b/framework-web/docs/framework_table_dd.xlsx
@@ -12,9 +12,10 @@
     <sheet name="DATA DICT" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'DATA DICT'!$A$2:$AI$344</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'DATA DICT'!$A$1:$AK$344</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'DATA DICT'!$A$2:$AI$344</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'DATA DICT'!$A$1:$AK$344</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'DATA DICT'!$A$2:$AI$344</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'DATA DICT'!$A$1:$AK$344</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'DATA DICT'!$A$2:$AI$344</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1195,21 +1196,21 @@
   <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="V327:W339 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="V3:W344 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,47 +1539,42 @@
   <dimension ref="A1:AK344"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="U322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="T330" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="A322" activeCellId="0" sqref="A322"/>
-      <selection pane="bottomRight" activeCell="V327" activeCellId="0" sqref="V327:W339"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A330" activeCellId="0" sqref="A330"/>
+      <selection pane="bottomRight" activeCell="V3" activeCellId="0" sqref="V3:W344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.48888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="6.85925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.3185185185185"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="48.3111111111111"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="9" width="8.23333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="44.4888888888889"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="91.7222222222222"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="8.23333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="31" min="29" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.23333333333333"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="47.5259259259259"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="40.3740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.58518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="7.05555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.1037037037037"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="49.4851851851852"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="9" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="45.5666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="94.0740740740741"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="31" min="29" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="48.7037037037037"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="41.3518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11464,7 +11460,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="8" t="n">
@@ -11517,10 +11513,11 @@
         <v>47</v>
       </c>
       <c r="W106" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D106)," ",Q106,"(",R106,")",IF(U106&lt;&gt;"",cov3ncatenate(" DEFAULT ",U106),""),IF(S106="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D85),"_PK  PRIMARY KEY(",UPPER($D85),",",UPPER($D105),",",UPPER($D106),"));",CHAR(10)," ALTER TABLE ",$B85," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D106)," ",Q106,"(",R106,")",IF(U106&lt;&gt;"",cov3ncatenate(" DEFAULT ",U106),""),IF(S106="Y"," NOT NULL",""),", ",CHAR(10),   "CONSTRAINT ",UPPER($D85),"_PK  PRIMARY KEY(",UPPER($D85),",",UPPER($D105),",",UPPER($D106),"),",CHAR(10), "CONSTRAINT ",UPPER($D86),"_UK  UNIQUE (",UPPER($D86),",",UPPER($D105),",",UPPER($D106),"));",CHAR(10)," ALTER TABLE ",UPPER($B85)," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT ACCOUNT_ID_PK  PRIMARY KEY(ACCOUNT_ID,LOAD_DATE,LOAD_ID));
- ALTER TABLE dim_account PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
+CONSTRAINT ACCOUNT_ID_PK  PRIMARY KEY(ACCOUNT_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT SRC_ACCOUNT_ID_UK  UNIQUE (SRC_ACCOUNT_ID,LOAD_DATE,LOAD_ID));
+ ALTER TABLE DIM_ACCOUNT PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X106" s="0" t="str">
         <f aca="false">VLOOKUP($E106,MAPPING!$B$2:$F$7,4,0)</f>
@@ -12814,7 +12811,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="8" t="n">
@@ -12867,9 +12864,10 @@
         <v>47</v>
       </c>
       <c r="W120" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D120)," ",Q120,"(",R120,")",IF(U120&lt;&gt;"",cov3ncatenate(" DEFAULT ",U120),""),IF(S120="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D107),"_PK  PRIMARY KEY(",UPPER($D107),",",UPPER($D119),",",UPPER($D120),"));",CHAR(10)," ALTER TABLE ",$B107," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D120)," ",Q120,"(",R120,")",IF(U120&lt;&gt;"",cov3ncatenate(" DEFAULT ",U120),""),IF(S120="Y"," NOT NULL",""),", ",CHAR(10), "CONSTRAINT ",UPPER($D107),"_PK  PRIMARY KEY(",UPPER($D107),",",UPPER($D119),",",UPPER($D120),"),",CHAR(10),  "CONSTRAINT ",UPPER($D108),"_UK  UNIQUE (",UPPER($D108),",",UPPER($D119),",",UPPER($D120),"));",CHAR(10)," ALTER TABLE ",$B107," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT ADDRESS_ID_PK  PRIMARY KEY(ADDRESS_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT ADDRESS_ID_PK  PRIMARY KEY(ADDRESS_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT SRC_ADDRESS_ID_UK  UNIQUE (SRC_ADDRESS_ID,LOAD_DATE,LOAD_ID));
  ALTER TABLE dim_address PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X120" s="0" t="str">
@@ -13684,7 +13682,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="23"/>
       <c r="B129" s="23"/>
       <c r="C129" s="8" t="n">
@@ -13737,9 +13735,10 @@
         <v>47</v>
       </c>
       <c r="W129" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D129)," ",Q129,"(",R129,")",IF(U129&lt;&gt;"",cov3ncatenate(" DEFAULT ",U129),""),IF(S129="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D121),"_PK  PRIMARY KEY(",UPPER($D121),",",UPPER($D128),",",UPPER($D129),"));",CHAR(10)," ALTER TABLE ",$B121," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D129)," ",Q129,"(",R129,")",IF(U129&lt;&gt;"",cov3ncatenate(" DEFAULT ",U129),""),IF(S129="Y"," NOT NULL",""),", ",CHAR(10),   "CONSTRAINT ",UPPER($D121),"_PK  PRIMARY KEY(",UPPER($D121),",",UPPER($D128),",",UPPER($D129),"),",CHAR(10), "CONSTRAINT ",UPPER($D122),"_UK  UNIQUE (",UPPER($D122),",",UPPER($D128),",",UPPER($D129),"));",CHAR(10),   " ALTER TABLE ",$B121," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT BANK_ID_PK  PRIMARY KEY(BANK_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT BANK_ID_PK  PRIMARY KEY(BANK_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT SRC_BANK_ID_UK  UNIQUE (SRC_BANK_ID,LOAD_DATE,LOAD_ID));
  ALTER TABLE dim_bank PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X129" s="0" t="str">
@@ -14650,7 +14649,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="8" t="n">
@@ -14703,9 +14702,10 @@
         <v>47</v>
       </c>
       <c r="W139" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D139)," ",Q139,"(",R139,")",IF(U139&lt;&gt;"",cov3ncatenate(" DEFAULT ",U139),""),IF(S139="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D130),"_PK  PRIMARY KEY(",UPPER($D130),",",UPPER($D138),",",UPPER($D139),"));",CHAR(10)," ALTER TABLE ",$B130," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D139)," ",Q139,"(",R139,")",IF(U139&lt;&gt;"",cov3ncatenate(" DEFAULT ",U139),""),IF(S139="Y"," NOT NULL",""),", ",CHAR(10),  "CONSTRAINT ",UPPER($D130),"_PK  PRIMARY KEY(",UPPER($D130),",",UPPER($D138),",",UPPER($D139),"),",CHAR(10), "CONSTRAINT ",UPPER($D131),"_UK  UNIQUE (",UPPER($D131),",",UPPER($D138),",",UPPER($D139),"));",CHAR(10),   " ALTER TABLE ",$B130," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT BRANCH_ID_PK  PRIMARY KEY(BRANCH_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT BRANCH_ID_PK  PRIMARY KEY(BRANCH_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT SRC_BRANCH_ID_UK  UNIQUE (SRC_BRANCH_ID,LOAD_DATE,LOAD_ID));
  ALTER TABLE dim_branch PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X139" s="0" t="str">
@@ -15179,7 +15179,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="8" t="n">
@@ -15232,9 +15232,10 @@
         <v>47</v>
       </c>
       <c r="W145" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D145)," ",Q145,"(",R145,")",IF(U145&lt;&gt;"",cov3ncatenate(" DEFAULT ",U145),""),IF(S145="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D140),"_PK  PRIMARY KEY(",UPPER($D140),",",UPPER($D144),",",UPPER($D145),"));",CHAR(10)," ALTER TABLE ",$B140," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D145)," ",Q145,"(",R145,")",IF(U145&lt;&gt;"",cov3ncatenate(" DEFAULT ",U145),""),IF(S145="Y"," NOT NULL",""),", ",CHAR(10),  "CONSTRAINT ",UPPER($D140),"_PK  PRIMARY KEY(",UPPER($D140),",",UPPER($D144),",",UPPER($D145),"),",CHAR(10), "CONSTRAINT ",UPPER($D141),"_UK  UNIQUE (",UPPER($D141),",",UPPER($D144),",",UPPER($D145),"));",CHAR(10),   " ALTER TABLE ",$B140," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT COUNTRY_ID_PK  PRIMARY KEY(COUNTRY_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT COUNTRY_ID_PK  PRIMARY KEY(COUNTRY_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT COUNTRY_CODE_UK  UNIQUE (COUNTRY_CODE,LOAD_DATE,LOAD_ID));
  ALTER TABLE dim_country PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="Y145" s="7" t="n">
@@ -16807,7 +16808,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="23"/>
       <c r="B162" s="23"/>
       <c r="C162" s="8" t="n">
@@ -16863,9 +16864,10 @@
       </c>
       <c r="U162" s="25"/>
       <c r="W162" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D162)," ",Q162,"(",R162,")",IF(U162&lt;&gt;"",cov3ncatenate(" DEFAULT ",U162),""),IF(S162="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D146),"_PK  PRIMARY KEY(",UPPER($D146),",",UPPER($D161),",",UPPER($D162),"));",CHAR(10)," ALTER TABLE ",$B146," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D162)," ",Q162,"(",R162,")",IF(U162&lt;&gt;"",cov3ncatenate(" DEFAULT ",U162),""),IF(S162="Y"," NOT NULL",""),", ",CHAR(10),  "CONSTRAINT ",UPPER($D146),"_PK  PRIMARY KEY(",UPPER($D146),",",UPPER($D161),",",UPPER($D162),"),",CHAR(10), "CONSTRAINT ",UPPER($D147),"_UK  UNIQUE (",UPPER($D147),",",UPPER($D161),",",UPPER($D162),"));",CHAR(10),   " ALTER TABLE ",$B146," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT CUSTOMER_ID_PK  PRIMARY KEY(CUSTOMER_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT CUSTOMER_ID_PK  PRIMARY KEY(CUSTOMER_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT SRC_CUSTOMER_ID_UK  UNIQUE (SRC_CUSTOMER_ID,LOAD_DATE,LOAD_ID));
  ALTER TABLE dim_customer PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X162" s="0" t="s">
@@ -22520,7 +22522,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="23"/>
       <c r="B222" s="23"/>
       <c r="C222" s="8" t="n">
@@ -22573,9 +22575,10 @@
         <v>47</v>
       </c>
       <c r="W222" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D222)," ",Q222,"(",R222,")",IF(U222&lt;&gt;"",cov3ncatenate(" DEFAULT ",U222),""),IF(S222="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D163),"_PK  PRIMARY KEY(",UPPER($D163),",",UPPER($D221),",",UPPER($D222),"));",CHAR(10)," ALTER TABLE ",$B163," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D222)," ",Q222,"(",R222,")",IF(U222&lt;&gt;"",cov3ncatenate(" DEFAULT ",U222),""),IF(S222="Y"," NOT NULL",""),", ",CHAR(10),   "CONSTRAINT ",UPPER($D163),"_PK  PRIMARY KEY(",UPPER($D163),"),",CHAR(10), "CONSTRAINT ",UPPER($D164),"_UK  UNIQUE (",UPPER($D164),",",UPPER($D234),"));",CHAR(10),  " ALTER TABLE ",$B163," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT DATE_ID_PK  PRIMARY KEY(DATE_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT DATE_ID_PK  PRIMARY KEY(DATE_ID),
+CONSTRAINT DATE_TYPE_UK  UNIQUE (DATE_TYPE,LOAD_DATE));
  ALTER TABLE dim_date PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X222" s="0" t="s">
@@ -23762,7 +23765,7 @@
         <v>LOAD_DATE  VARCHAR,</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="23"/>
       <c r="B235" s="23"/>
       <c r="C235" s="8" t="n">
@@ -23818,9 +23821,10 @@
       </c>
       <c r="U235" s="25"/>
       <c r="W235" s="24" t="str">
-        <f aca="false">CONCATENATE(UPPER($D235)," ",Q235,"(",R235,")",IF(U235&lt;&gt;"",cov3ncatenate(" DEFAULT ",U235),""),IF(S235="Y"," NOT NULL",""),", ",CHAR(10),"CONSTRAINT ",UPPER($D235),"_PK  PRIMARY KEY(",UPPER($D235),",",UPPER($D234),",",UPPER($D235),"));",CHAR(10)," ALTER TABLE ",$B230," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
+        <f aca="false">CONCATENATE(UPPER($D235)," ",Q235,"(",R235,")",IF(U235&lt;&gt;"",cov3ncatenate(" DEFAULT ",U235),""),IF(S235="Y"," NOT NULL",""),", ",CHAR(10),   "CONSTRAINT ",UPPER($D235),"_PK  PRIMARY KEY(",UPPER($D235),",",UPPER($D234),",",UPPER($D235),"),",CHAR(10), "CONSTRAINT ",UPPER($D236),"_UK  UNIQUE (",UPPER($D236),",",UPPER($D234),",",UPPER($D235),"));",CHAR(10), " ALTER TABLE ",$B230," PARTITION BY KEY(","LOAD_DATE,LOAD_ID);")</f>
         <v>LOAD_ID INTEGER(50), 
-CONSTRAINT LOAD_ID_PK  PRIMARY KEY(LOAD_ID,LOAD_DATE,LOAD_ID));
+CONSTRAINT LOAD_ID_PK  PRIMARY KEY(LOAD_ID,LOAD_DATE,LOAD_ID),
+CONSTRAINT DATAPODUUID_UK  UNIQUE (DATAPODUUID,LOAD_DATE,LOAD_ID));
  ALTER TABLE dim_transaction_type PARTITION BY KEY(LOAD_DATE,LOAD_ID);</v>
       </c>
       <c r="X235" s="0" t="s">
@@ -34285,7 +34289,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AI344"/>
+  <autoFilter ref="A1:AK344"/>
   <mergeCells count="32">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:P1"/>
